--- a/data/Subset1_WithDialogActs/What is one half 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/What is one half 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5373,12 +5373,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6285,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
